--- a/laredo/series_temporais/schlepper.xlsx
+++ b/laredo/series_temporais/schlepper.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="schlepper" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,33 @@
     <definedName name="Rank_Hired">#REF!</definedName>
     <definedName name="Salary">#REF!</definedName>
     <definedName name="Sex">#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">schlepper!$I$21:$I$22</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">schlepper!$G$17</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="SPSS">#REF!</definedName>
     <definedName name="Weight">#REF!</definedName>
     <definedName name="Year">#REF!</definedName>
@@ -48,19 +75,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>pExp.</t>
+    <t>pExp.(yi)</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>alpha =</t>
+  </si>
+  <si>
+    <t>beta =</t>
+  </si>
+  <si>
+    <t>Fi+1</t>
+  </si>
+  <si>
+    <t>erro^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +118,31 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -110,10 +173,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +230,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pExp.</c:v>
+                  <c:v>pExp.(yi)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -338,6 +407,188 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E735-4C80-82E6-6AD30A29AB6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>schlepper!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fi+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>schlepper!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>schlepper!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44.734176707244977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.155993736214405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.332504466652743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.596840873708018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.227752819701386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.600974192151021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.112943125370784</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.693998434881827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.127814808637453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.769394826917676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.20085648657561</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.669943216285461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.901198125451636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.559050916069687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.053240676206705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.706939095920532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.260189198604159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.811933210652654</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.602413145115023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.953929867211428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4372-4918-B9A4-25F3AD3C18A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1082,16 +1333,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1381,10 +1632,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1392,184 +1643,520 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1970</v>
       </c>
       <c r="B2" s="1">
         <v>46.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <f>$I$21*B2</f>
+        <v>44.192491286521452</v>
+      </c>
+      <c r="E2" s="5">
+        <f>$I$22*D2</f>
+        <v>0.54168542072352377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1971</v>
       </c>
       <c r="B3" s="1">
         <v>45.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="5">
+        <f>D2+E2</f>
+        <v>44.734176707244977</v>
+      </c>
+      <c r="D3" s="5">
+        <f>$I$21*B3+(1-$I$21)*(D2+E2)</f>
+        <v>45.603650816111276</v>
+      </c>
+      <c r="E3" s="5">
+        <f>$I$22*(D3-D2)+(1-$I$22)*E2</f>
+        <v>0.55234292010313224</v>
+      </c>
+      <c r="F3" s="5">
+        <f>(C3-B3)^2</f>
+        <v>0.82051583769755321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1972</v>
       </c>
       <c r="B4" s="1">
         <v>44.74</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="5">
+        <f>D3+E3</f>
+        <v>46.155993736214405</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D22" si="0">$I$21*B4+(1-$I$21)*(D3+E3)</f>
+        <v>44.796821476235607</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E22" si="1">$I$22*(D4-D3)+(1-$I$22)*E3</f>
+        <v>0.53568299041713796</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F17" si="2">(C4-B4)^2</f>
+        <v>2.0050382609984259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1973</v>
       </c>
       <c r="B5" s="1">
         <v>49.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C22" si="3">D4+E4</f>
+        <v>45.332504466652743</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>49.016007679500568</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5808331942074475</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>14.72637196846016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1974</v>
       </c>
       <c r="B6" s="1">
         <v>47.59</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <f t="shared" si="3"/>
+        <v>49.596840873708018</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>47.670531190285416</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.55722162941596853</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>4.0274102923851478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1975</v>
       </c>
       <c r="B7" s="1">
         <v>45.98</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <f t="shared" si="3"/>
+        <v>48.227752819701386</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>46.070198586449699</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53077560570131965</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>5.0523927384755476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1976</v>
       </c>
       <c r="B8" s="1">
         <v>48.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="5">
+        <f t="shared" si="3"/>
+        <v>46.600974192151021</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>48.55817728177653</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.55476584359425629</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>4.1576262450741828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1977</v>
       </c>
       <c r="B9" s="1">
         <v>49.14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <f t="shared" si="3"/>
+        <v>49.112943125370784</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>49.138914252570871</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.55508418231095891</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>7.3207446470116772E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1978</v>
       </c>
       <c r="B10" s="1">
         <v>48.54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="5">
+        <f t="shared" si="3"/>
+        <v>49.693998434881827</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>48.586308040047456</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.54150676858999347</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3317123877097086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1979</v>
       </c>
       <c r="B11" s="1">
         <v>50.26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="5">
+        <f t="shared" si="3"/>
+        <v>49.127814808637453</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>50.214567289176507</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.55482753774117</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.281843307540643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1980</v>
       </c>
       <c r="B12" s="1">
         <v>53.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="5">
+        <f t="shared" si="3"/>
+        <v>50.769394826917676</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>53.611195832874898</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58966065370071241</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>8.7651829908818009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1981</v>
       </c>
       <c r="B13" s="1">
         <v>49.96</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <f t="shared" si="3"/>
+        <v>54.20085648657561</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>50.130178525446581</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53976469083887935</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>17.984863739730418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1982</v>
       </c>
       <c r="B14" s="1">
         <v>53.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <f t="shared" si="3"/>
+        <v>50.669943216285461</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>53.328842223181077</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57235590227055744</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>7.6732145850029259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1983</v>
       </c>
       <c r="B15" s="1">
         <v>52.96</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <f t="shared" si="3"/>
+        <v>53.901198125451636</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>52.997768717156418</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.56128219891327114</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.88585391135367131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1984</v>
       </c>
       <c r="B16" s="1">
         <v>53.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <f t="shared" si="3"/>
+        <v>53.559050916069687</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>53.492770898547185</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.56046977765952322</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7680290100626591E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1985</v>
       </c>
       <c r="B17" s="1">
         <v>53.12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <f t="shared" si="3"/>
+        <v>54.053240676206705</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>53.157449397937974</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.54948969798256109</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.8709381597267537</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(F3:F17)</f>
+        <v>69.588464528511693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1986</v>
       </c>
       <c r="B18" s="1">
         <v>54.74</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <f t="shared" si="3"/>
+        <v>53.706939095920532</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>54.698544982149414</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.56164421645474416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1987</v>
       </c>
       <c r="B19" s="1">
         <v>55.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <f t="shared" si="3"/>
+        <v>55.260189198604159</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>55.250408875612607</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5615243350400454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1988</v>
       </c>
       <c r="B20" s="1">
         <v>52.96</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <f t="shared" si="3"/>
+        <v>55.811933210652654</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>53.074443341810159</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.52796980330486365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1989</v>
       </c>
       <c r="B21" s="1">
         <v>54.45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <f t="shared" si="3"/>
+        <v>53.602413145115023</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>54.415987747614466</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53794211959695959</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.95987166130585266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1990</v>
       </c>
       <c r="B22" s="1">
         <v>54.87</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="2"/>
+      <c r="C22" s="5">
+        <f t="shared" si="3"/>
+        <v>54.953929867211428</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>54.873367966138012</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53695463946160571</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.2257408554125479E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
